--- a/nodes_source_analyses/buildings/buildings_collective_chp_wood_pellets.central_producer.xlsx
+++ b/nodes_source_analyses/buildings/buildings_collective_chp_wood_pellets.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/buildings/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -314,9 +322,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -686,6 +691,30 @@
   </si>
   <si>
     <t>Large city heat STAG: 42% / 43%</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>rake import:node NODE="nodename"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the button to update the node attributes on ETSource. 
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -873,11 +902,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -914,6 +938,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1489,10 +1519,10 @@
   <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1505,7 +1535,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="180" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="180" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="180" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1564,59 +1594,59 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="180" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="180" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="180" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="180" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1702,7 +1732,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1720,7 +1750,7 @@
     <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1783,39 +1813,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="259">
@@ -2081,80 +2111,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2349,7 +2314,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2790,50 +2755,50 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="30"/>
+    <col min="1" max="1" width="3.42578125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="36" customFormat="1">
+    <row r="1" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="37"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="18" t="s">
         <v>20</v>
@@ -2842,29 +2807,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="117" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="118"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="119"/>
       <c r="C10" s="120"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="119" t="s">
         <v>77</v>
@@ -2873,33 +2838,33 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="119"/>
       <c r="C12" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="119"/>
       <c r="C13" s="122" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="119"/>
       <c r="C14" s="120" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="119"/>
       <c r="C15" s="120"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="119" t="s">
         <v>82</v>
@@ -2908,49 +2873,49 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="119"/>
       <c r="C17" s="124" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="119"/>
       <c r="C18" s="125" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="119"/>
       <c r="C19" s="126" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="127"/>
       <c r="C20" s="128" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="127"/>
       <c r="C21" s="129" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="127"/>
       <c r="C22" s="130" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="127"/>
       <c r="C23" s="131" t="s">
         <v>90</v>
@@ -2959,76 +2924,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="45" customWidth="1"/>
     <col min="3" max="3" width="46" style="45" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="45" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="45" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="45" customWidth="1"/>
     <col min="7" max="7" width="45" style="45" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="45" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="45" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="45"/>
+    <col min="8" max="8" width="5.140625" style="45" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
     </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="176" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="178"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="181" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="183"/>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="179"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="181"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="184"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="186"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="182"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="184"/>
+    <row r="4" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="187"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="189"/>
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="43"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="46"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -3039,7 +2999,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="47"/>
     </row>
-    <row r="7" spans="2:11" s="49" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="49" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="132"/>
       <c r="C7" s="27" t="s">
         <v>33</v>
@@ -3060,7 +3020,7 @@
       </c>
       <c r="J7" s="139"/>
     </row>
-    <row r="8" spans="2:11" s="49" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="49" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="32"/>
       <c r="C8" s="26"/>
       <c r="D8" s="40"/>
@@ -3071,10 +3031,10 @@
       <c r="I8" s="26"/>
       <c r="J8" s="50"/>
     </row>
-    <row r="9" spans="2:11" s="49" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="49" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="32"/>
       <c r="C9" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="26"/>
@@ -3084,10 +3044,10 @@
       <c r="I9" s="26"/>
       <c r="J9" s="50"/>
     </row>
-    <row r="10" spans="2:11" s="49" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="49" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="32"/>
       <c r="C10" s="149" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>5</v>
@@ -3100,11 +3060,11 @@
       <c r="G10" s="44"/>
       <c r="H10" s="39"/>
       <c r="I10" s="116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="2:11" s="49" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="49" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="32"/>
       <c r="C11" s="44" t="s">
         <v>62</v>
@@ -3120,11 +3080,11 @@
       <c r="G11" s="44"/>
       <c r="H11" s="39"/>
       <c r="I11" s="116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J11" s="50"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="48"/>
       <c r="C12" s="44" t="s">
         <v>35</v>
@@ -3144,7 +3104,7 @@
       <c r="J12" s="140"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="48"/>
       <c r="C13" s="44" t="s">
         <v>37</v>
@@ -3164,7 +3124,7 @@
       <c r="J13" s="140"/>
       <c r="K13" s="43"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="48"/>
       <c r="C14" s="44" t="s">
         <v>40</v>
@@ -3184,7 +3144,7 @@
       <c r="J14" s="140"/>
       <c r="K14" s="43"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="48"/>
       <c r="C15" s="44" t="s">
         <v>41</v>
@@ -3204,7 +3164,7 @@
       <c r="J15" s="140"/>
       <c r="K15" s="43"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="48"/>
       <c r="C16" s="44" t="s">
         <v>42</v>
@@ -3226,7 +3186,7 @@
       </c>
       <c r="J16" s="140"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="48"/>
       <c r="C17" s="44" t="s">
         <v>43</v>
@@ -3248,7 +3208,7 @@
       </c>
       <c r="J17" s="140"/>
     </row>
-    <row r="18" spans="2:10" ht="16" thickBot="1">
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="78" t="s">
         <v>65</v>
@@ -3269,7 +3229,7 @@
       </c>
       <c r="J18" s="140"/>
     </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="48"/>
       <c r="C19" s="78" t="s">
         <v>66</v>
@@ -3290,7 +3250,7 @@
       </c>
       <c r="J19" s="140"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="48"/>
       <c r="C20" s="78" t="s">
         <v>67</v>
@@ -3311,7 +3271,7 @@
       </c>
       <c r="J20" s="140"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="48"/>
       <c r="C21" s="78" t="s">
         <v>68</v>
@@ -3332,7 +3292,7 @@
       </c>
       <c r="J21" s="140"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="48"/>
       <c r="C22" s="78" t="s">
         <v>69</v>
@@ -3353,7 +3313,7 @@
       </c>
       <c r="J22" s="140"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="48"/>
       <c r="C23" s="100"/>
       <c r="D23" s="135"/>
@@ -3364,10 +3324,10 @@
       <c r="I23" s="43"/>
       <c r="J23" s="140"/>
     </row>
-    <row r="24" spans="2:10" ht="16" thickBot="1">
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="48"/>
       <c r="C24" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="135"/>
       <c r="E24" s="136"/>
@@ -3377,7 +3337,7 @@
       <c r="I24" s="43"/>
       <c r="J24" s="140"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="48"/>
       <c r="C25" s="44" t="s">
         <v>44</v>
@@ -3395,11 +3355,11 @@
       </c>
       <c r="H25" s="44"/>
       <c r="I25" s="116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J25" s="140"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="48"/>
       <c r="C26" s="44" t="s">
         <v>45</v>
@@ -3420,7 +3380,7 @@
       </c>
       <c r="J26" s="140"/>
     </row>
-    <row r="27" spans="2:10" ht="16" thickBot="1">
+    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="48"/>
       <c r="C27" s="44" t="s">
         <v>12</v>
@@ -3441,7 +3401,7 @@
       </c>
       <c r="J27" s="140"/>
     </row>
-    <row r="28" spans="2:10" ht="16" thickBot="1">
+    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48"/>
       <c r="C28" s="44" t="s">
         <v>46</v>
@@ -3462,7 +3422,7 @@
       </c>
       <c r="J28" s="140"/>
     </row>
-    <row r="29" spans="2:10" ht="16" thickBot="1">
+    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="48"/>
       <c r="C29" s="44" t="s">
         <v>47</v>
@@ -3480,11 +3440,11 @@
       </c>
       <c r="H29" s="44"/>
       <c r="I29" s="116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J29" s="140"/>
     </row>
-    <row r="30" spans="2:10" ht="16" thickBot="1">
+    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="48"/>
       <c r="C30" s="44" t="s">
         <v>48</v>
@@ -3502,11 +3462,11 @@
       </c>
       <c r="H30" s="44"/>
       <c r="I30" s="116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J30" s="140"/>
     </row>
-    <row r="31" spans="2:10" ht="16" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="48"/>
       <c r="C31" s="44" t="s">
         <v>49</v>
@@ -3527,7 +3487,7 @@
       </c>
       <c r="J31" s="140"/>
     </row>
-    <row r="32" spans="2:10" ht="16" thickBot="1">
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="48"/>
       <c r="C32" s="44" t="s">
         <v>52</v>
@@ -3548,7 +3508,7 @@
       </c>
       <c r="J32" s="140"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="48"/>
       <c r="C33" s="44" t="s">
         <v>39</v>
@@ -3567,7 +3527,7 @@
       </c>
       <c r="J33" s="140"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="48"/>
       <c r="C34" s="44"/>
       <c r="D34" s="31"/>
@@ -3578,7 +3538,7 @@
       <c r="I34" s="43"/>
       <c r="J34" s="140"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="48"/>
       <c r="C35" s="26" t="s">
         <v>8</v>
@@ -3591,7 +3551,7 @@
       <c r="I35" s="43"/>
       <c r="J35" s="140"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="48"/>
       <c r="C36" s="44" t="s">
         <v>38</v>
@@ -3609,11 +3569,11 @@
       </c>
       <c r="H36" s="44"/>
       <c r="I36" s="153" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J36" s="140"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="48"/>
       <c r="C37" s="44" t="s">
         <v>50</v>
@@ -3631,11 +3591,11 @@
       </c>
       <c r="H37" s="44"/>
       <c r="I37" s="161" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J37" s="140"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="48"/>
       <c r="C38" s="44" t="s">
         <v>51</v>
@@ -3653,11 +3613,11 @@
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="163" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J38" s="140"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="48"/>
       <c r="C39" s="44" t="s">
         <v>36</v>
@@ -3676,10 +3636,10 @@
       </c>
       <c r="J39" s="140"/>
     </row>
-    <row r="40" spans="2:10" s="167" customFormat="1" ht="16" thickBot="1">
+    <row r="40" spans="2:10" s="167" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="168"/>
       <c r="C40" s="169" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="31"/>
       <c r="E40" s="170">
@@ -3689,14 +3649,14 @@
       <c r="G40" s="169"/>
       <c r="H40" s="169"/>
       <c r="I40" s="171" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J40" s="172"/>
     </row>
-    <row r="41" spans="2:10" s="167" customFormat="1" ht="16" thickBot="1">
+    <row r="41" spans="2:10" s="167" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="168"/>
       <c r="C41" s="169" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D41" s="31"/>
       <c r="E41" s="170">
@@ -3706,14 +3666,14 @@
       <c r="G41" s="169"/>
       <c r="H41" s="169"/>
       <c r="I41" s="171" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J41" s="172"/>
     </row>
-    <row r="42" spans="2:10" s="167" customFormat="1" ht="16" thickBot="1">
+    <row r="42" spans="2:10" s="167" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="168"/>
       <c r="C42" s="169" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D42" s="31"/>
       <c r="E42" s="170">
@@ -3723,14 +3683,14 @@
       <c r="G42" s="169"/>
       <c r="H42" s="169"/>
       <c r="I42" s="171" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J42" s="172"/>
     </row>
-    <row r="43" spans="2:10" s="167" customFormat="1" ht="16" thickBot="1">
+    <row r="43" spans="2:10" s="167" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="168"/>
       <c r="C43" s="169" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D43" s="31"/>
       <c r="E43" s="170">
@@ -3740,14 +3700,14 @@
       <c r="G43" s="169"/>
       <c r="H43" s="169"/>
       <c r="I43" s="171" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J43" s="172"/>
     </row>
-    <row r="44" spans="2:10" s="167" customFormat="1" ht="16" thickBot="1">
+    <row r="44" spans="2:10" s="167" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="168"/>
       <c r="C44" s="169" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D44" s="31"/>
       <c r="E44" s="170">
@@ -3757,11 +3717,11 @@
       <c r="G44" s="169"/>
       <c r="H44" s="169"/>
       <c r="I44" s="171" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J44" s="172"/>
     </row>
-    <row r="45" spans="2:10" s="167" customFormat="1" ht="20" customHeight="1" thickBot="1">
+    <row r="45" spans="2:10" s="167" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="173"/>
       <c r="C45" s="174"/>
       <c r="D45" s="174"/>
@@ -3778,43 +3738,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3829,30 +3752,29 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="81" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="81" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="81" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="81" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="81" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="81" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="81" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="81" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="82" customWidth="1"/>
-    <col min="10" max="10" width="2.5" style="82" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="82" customWidth="1"/>
-    <col min="12" max="12" width="2.625" style="82" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="82" customWidth="1"/>
-    <col min="14" max="14" width="3.25" style="82" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="82" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="82" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="81" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="81" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="81" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="81" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="81" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="81" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="81" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="82" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="82" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="82" customWidth="1"/>
+    <col min="12" max="12" width="2.5703125" style="82" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="82" customWidth="1"/>
+    <col min="14" max="14" width="3.28515625" style="82" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="82" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="82" customWidth="1"/>
     <col min="17" max="17" width="60" style="81" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="81"/>
+    <col min="18" max="16384" width="10.7109375" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" thickBot="1"/>
-    <row r="2" spans="1:17">
+    <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="83"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -3870,10 +3792,10 @@
       <c r="P2" s="85"/>
       <c r="Q2" s="86"/>
     </row>
-    <row r="3" spans="1:17" s="33" customFormat="1">
+    <row r="3" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="32"/>
       <c r="C3" s="147" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -3885,26 +3807,26 @@
       </c>
       <c r="H3" s="147"/>
       <c r="I3" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J3" s="74"/>
       <c r="K3" s="164" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L3" s="74"/>
       <c r="M3" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N3" s="74"/>
       <c r="O3" s="74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P3" s="74"/>
       <c r="Q3" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="87"/>
       <c r="C4" s="88"/>
       <c r="D4" s="88"/>
@@ -3922,10 +3844,10 @@
       <c r="P4" s="146"/>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:17" ht="16" thickBot="1">
+    <row r="5" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="87"/>
       <c r="C5" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -3942,7 +3864,7 @@
       <c r="P5" s="22"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:17" ht="16" thickBot="1">
+    <row r="6" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="87"/>
       <c r="C6" s="90" t="s">
         <v>30</v>
@@ -3970,13 +3892,13 @@
       <c r="P6" s="94"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:17" ht="16" thickBot="1">
+    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="87"/>
       <c r="C7" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
@@ -4003,10 +3925,10 @@
       <c r="P7" s="94"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" ht="16" thickBot="1">
+    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="87"/>
       <c r="C8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
@@ -4033,7 +3955,7 @@
       <c r="P8" s="94"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="87"/>
       <c r="C9" s="99"/>
       <c r="D9" s="99"/>
@@ -4051,7 +3973,7 @@
       <c r="P9" s="94"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" ht="16" thickBot="1">
+    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="87"/>
       <c r="C10" s="41" t="s">
         <v>8</v>
@@ -4071,10 +3993,10 @@
       <c r="P10" s="94"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="16" thickBot="1">
+    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
       <c r="C11" s="148" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="95"/>
       <c r="E11" s="95"/>
@@ -4098,10 +4020,10 @@
       </c>
       <c r="P11" s="94"/>
       <c r="Q11" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16" thickBot="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="87"/>
       <c r="C12" s="101" t="s">
         <v>1</v>
@@ -4129,7 +4051,7 @@
       <c r="P12" s="89"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
+    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="87"/>
       <c r="C13" s="104" t="s">
         <v>6</v>
@@ -4157,7 +4079,7 @@
       <c r="P13" s="89"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="87"/>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -4175,10 +4097,10 @@
       <c r="P14" s="94"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
+    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="87"/>
       <c r="C15" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -4195,10 +4117,10 @@
       <c r="P15" s="94"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
+    <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="87"/>
       <c r="C16" s="141" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -4220,7 +4142,7 @@
       <c r="P16" s="94"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="2:17" ht="16" thickBot="1">
+    <row r="17" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="87"/>
       <c r="C17" s="106" t="s">
         <v>9</v>
@@ -4228,7 +4150,7 @@
       <c r="D17" s="106"/>
       <c r="E17" s="106"/>
       <c r="F17" s="142" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17" s="102">
         <f>I17</f>
@@ -4247,13 +4169,13 @@
       <c r="O17" s="94"/>
       <c r="P17" s="94"/>
       <c r="Q17" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="16" thickBot="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="87"/>
       <c r="C18" s="151" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
@@ -4275,15 +4197,15 @@
       <c r="P18" s="97"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="2:17" ht="16" thickBot="1">
+    <row r="19" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="87"/>
       <c r="C19" s="141" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="143" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="107">
         <f>I19</f>
@@ -4302,13 +4224,13 @@
       <c r="O19" s="103"/>
       <c r="P19" s="97"/>
       <c r="Q19" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="16" thickBot="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87"/>
       <c r="C20" s="151" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="109"/>
       <c r="E20" s="109"/>
@@ -4330,15 +4252,15 @@
       <c r="P20" s="97"/>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="2:17" ht="16" thickBot="1">
+    <row r="21" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="87"/>
       <c r="C21" s="141" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="108"/>
       <c r="E21" s="108"/>
       <c r="F21" s="142" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" s="110">
         <f>ROUND(I21,0)</f>
@@ -4358,7 +4280,7 @@
       <c r="P21" s="97"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="2:17" ht="16" thickBot="1">
+    <row r="22" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="111"/>
       <c r="C22" s="112"/>
       <c r="D22" s="112"/>
@@ -4379,11 +4301,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4398,22 +4315,22 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="53" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="53" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="53" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="53" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="53" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="53" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="33.5" style="54" customWidth="1"/>
-    <col min="11" max="11" width="77.5" style="53" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="53"/>
+    <col min="1" max="1" width="3.28515625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="53" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="54" customWidth="1"/>
+    <col min="11" max="11" width="77.42578125" style="53" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="55"/>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -4425,7 +4342,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="58"/>
       <c r="C3" s="59" t="s">
         <v>22</v>
@@ -4439,7 +4356,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="58"/>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
@@ -4451,7 +4368,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="63"/>
       <c r="C5" s="64" t="s">
         <v>31</v>
@@ -4467,19 +4384,19 @@
         <v>32</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I5" s="64" t="s">
         <v>61</v>
       </c>
       <c r="J5" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K5" s="64" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="58"/>
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
@@ -4491,31 +4408,31 @@
       <c r="J6" s="60"/>
       <c r="K6" s="59"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="58"/>
       <c r="C7" s="72"/>
       <c r="D7" s="66"/>
       <c r="E7" s="61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I7" s="62"/>
       <c r="J7" s="62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K7" s="76" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="58"/>
       <c r="C8" s="67" t="s">
         <v>1</v>
@@ -4529,7 +4446,7 @@
       <c r="J8" s="62"/>
       <c r="K8" s="77"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="58"/>
       <c r="C9" s="67"/>
       <c r="D9" s="67"/>
@@ -4541,31 +4458,31 @@
       <c r="J9" s="62"/>
       <c r="K9" s="77"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="58"/>
       <c r="C10" s="67"/>
       <c r="D10" s="67"/>
       <c r="E10" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="61" t="s">
-        <v>121</v>
-      </c>
       <c r="G10" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H10" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K10" s="77" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="58"/>
       <c r="C11" s="66" t="s">
         <v>64</v>
@@ -4579,7 +4496,7 @@
       <c r="J11" s="62"/>
       <c r="K11" s="77"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="58"/>
       <c r="C12" s="66"/>
       <c r="D12" s="67"/>
@@ -4591,32 +4508,32 @@
       <c r="J12" s="62"/>
       <c r="K12" s="77"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="58"/>
       <c r="C13" s="66"/>
       <c r="D13" s="71"/>
       <c r="E13" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="68" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I13" s="69"/>
       <c r="J13" s="69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K13" s="66"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="58"/>
       <c r="C14" s="71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="71"/>
       <c r="E14" s="66"/>
@@ -4627,10 +4544,10 @@
       <c r="J14" s="69"/>
       <c r="K14" s="66"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="58"/>
       <c r="C15" s="66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="66"/>
@@ -4641,7 +4558,7 @@
       <c r="J15" s="69"/>
       <c r="K15" s="66"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="58"/>
       <c r="C16" s="71" t="s">
         <v>59</v>
@@ -4655,7 +4572,7 @@
       <c r="J16" s="69"/>
       <c r="K16" s="66"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="58"/>
       <c r="C17" s="66"/>
       <c r="D17" s="66"/>
@@ -4666,7 +4583,7 @@
       <c r="J17" s="73"/>
       <c r="K17" s="70"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="58"/>
       <c r="C18" s="66"/>
       <c r="D18" s="66"/>
@@ -4678,28 +4595,28 @@
       <c r="J18" s="73"/>
       <c r="K18" s="70"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="58"/>
       <c r="C19" s="66"/>
       <c r="D19" s="66"/>
       <c r="E19" s="61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="66"/>
       <c r="G19" s="75"/>
       <c r="H19" s="75"/>
       <c r="I19" s="66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J19" s="73"/>
       <c r="K19" s="70" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="58"/>
       <c r="C20" s="67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="66"/>
       <c r="E20" s="61"/>
@@ -4716,11 +4633,6 @@
   <ignoredErrors>
     <ignoredError sqref="G13:H13 G10:H10 G7:H7" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4733,19 +4645,19 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="154" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="154" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="154" customWidth="1"/>
-    <col min="4" max="5" width="18.625" style="154" customWidth="1"/>
-    <col min="6" max="12" width="10.625" style="154"/>
-    <col min="13" max="13" width="33.375" style="154" customWidth="1"/>
-    <col min="14" max="16384" width="10.625" style="154"/>
+    <col min="1" max="1" width="3.5703125" style="154" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="154" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="154" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" style="154" customWidth="1"/>
+    <col min="6" max="12" width="10.7109375" style="154"/>
+    <col min="13" max="13" width="33.42578125" style="154" customWidth="1"/>
+    <col min="14" max="16384" width="10.7109375" style="154"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="16" thickBot="1"/>
-    <row r="3" spans="2:13">
+    <row r="2" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="155"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -4759,13 +4671,13 @@
       <c r="L3" s="28"/>
       <c r="M3" s="156"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="132"/>
       <c r="C4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -4777,7 +4689,7 @@
       <c r="L4" s="27"/>
       <c r="M4" s="158"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="159"/>
       <c r="C5" s="157"/>
       <c r="D5" s="157"/>
@@ -4791,7 +4703,7 @@
       <c r="L5" s="157"/>
       <c r="M5" s="160"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="159"/>
       <c r="C6" s="157"/>
       <c r="D6" s="157"/>
@@ -4805,10 +4717,10 @@
       <c r="L6" s="157"/>
       <c r="M6" s="160"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="159"/>
       <c r="C7" s="157" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="76"/>
       <c r="E7" s="76"/>
@@ -4821,7 +4733,7 @@
       <c r="L7" s="157"/>
       <c r="M7" s="160"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="159"/>
       <c r="C8" s="157"/>
       <c r="D8" s="157"/>
@@ -4835,7 +4747,7 @@
       <c r="L8" s="157"/>
       <c r="M8" s="160"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="159"/>
       <c r="C9" s="157"/>
       <c r="D9" s="157"/>
@@ -4849,7 +4761,7 @@
       <c r="L9" s="157"/>
       <c r="M9" s="160"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="159"/>
       <c r="C10" s="157"/>
       <c r="D10" s="157"/>
@@ -4863,7 +4775,7 @@
       <c r="L10" s="157"/>
       <c r="M10" s="160"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="159"/>
       <c r="C11" s="157"/>
       <c r="D11" s="157"/>
@@ -4877,7 +4789,7 @@
       <c r="L11" s="157"/>
       <c r="M11" s="160"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="159"/>
       <c r="C12" s="157"/>
       <c r="D12" s="157"/>
@@ -4891,7 +4803,7 @@
       <c r="L12" s="157"/>
       <c r="M12" s="160"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="159"/>
       <c r="C13" s="157"/>
       <c r="E13" s="157">
@@ -4908,7 +4820,7 @@
       <c r="L13" s="157"/>
       <c r="M13" s="160"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="159"/>
       <c r="C14" s="157"/>
       <c r="E14" s="157"/>
@@ -4921,14 +4833,14 @@
       <c r="L14" s="157"/>
       <c r="M14" s="160"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="159"/>
       <c r="C15" s="157"/>
       <c r="E15" s="157">
         <v>2.5</v>
       </c>
       <c r="F15" s="165" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G15" s="157"/>
       <c r="H15" s="157"/>
@@ -4938,14 +4850,14 @@
       <c r="L15" s="157"/>
       <c r="M15" s="160"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="159"/>
       <c r="C16" s="157"/>
       <c r="E16" s="157">
         <v>6</v>
       </c>
       <c r="F16" s="165" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G16" s="157"/>
       <c r="H16" s="157"/>
@@ -4955,7 +4867,7 @@
       <c r="L16" s="157"/>
       <c r="M16" s="160"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="159"/>
       <c r="C17" s="157"/>
       <c r="E17" s="157"/>
@@ -4968,7 +4880,7 @@
       <c r="L17" s="157"/>
       <c r="M17" s="160"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="159"/>
       <c r="C18" s="157"/>
       <c r="E18" s="135"/>
@@ -4981,7 +4893,7 @@
       <c r="L18" s="157"/>
       <c r="M18" s="160"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="159"/>
       <c r="C19" s="157"/>
       <c r="E19" s="157"/>
@@ -4994,7 +4906,7 @@
       <c r="L19" s="157"/>
       <c r="M19" s="160"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="159"/>
       <c r="C20" s="157"/>
       <c r="E20" s="157"/>
@@ -5007,7 +4919,7 @@
       <c r="L20" s="157"/>
       <c r="M20" s="160"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="159"/>
       <c r="C21" s="157"/>
       <c r="E21" s="157"/>
@@ -5020,7 +4932,7 @@
       <c r="L21" s="157"/>
       <c r="M21" s="160"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="159"/>
       <c r="C22" s="157"/>
       <c r="E22" s="157"/>
@@ -5033,7 +4945,7 @@
       <c r="L22" s="157"/>
       <c r="M22" s="160"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="159"/>
       <c r="C23" s="157"/>
       <c r="E23" s="157"/>
@@ -5046,7 +4958,7 @@
       <c r="L23" s="157"/>
       <c r="M23" s="160"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="159"/>
       <c r="C24" s="157"/>
       <c r="E24" s="157"/>
@@ -5059,7 +4971,7 @@
       <c r="L24" s="157"/>
       <c r="M24" s="160"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="159"/>
       <c r="C25" s="157"/>
       <c r="E25" s="157"/>
@@ -5072,7 +4984,7 @@
       <c r="L25" s="157"/>
       <c r="M25" s="160"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="159"/>
       <c r="C26" s="157"/>
       <c r="E26" s="157"/>
@@ -5085,7 +4997,7 @@
       <c r="L26" s="157"/>
       <c r="M26" s="160"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="159"/>
       <c r="C27" s="157"/>
       <c r="E27" s="157"/>
@@ -5098,10 +5010,10 @@
       <c r="L27" s="157"/>
       <c r="M27" s="160"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="159"/>
       <c r="C28" s="165" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" s="157"/>
       <c r="F28" s="157"/>
@@ -5113,10 +5025,10 @@
       <c r="L28" s="157"/>
       <c r="M28" s="160"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="159"/>
       <c r="C29" s="165" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E29" s="157"/>
       <c r="F29" s="157"/>
@@ -5128,7 +5040,7 @@
       <c r="L29" s="157"/>
       <c r="M29" s="160"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="159"/>
       <c r="C30" s="157"/>
       <c r="E30" s="157"/>
@@ -5141,7 +5053,7 @@
       <c r="L30" s="157"/>
       <c r="M30" s="160"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="159"/>
       <c r="C31" s="157"/>
       <c r="E31" s="157"/>
@@ -5154,7 +5066,7 @@
       <c r="L31" s="157"/>
       <c r="M31" s="160"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="159"/>
       <c r="C32" s="157"/>
       <c r="E32" s="157"/>
@@ -5167,7 +5079,7 @@
       <c r="L32" s="157"/>
       <c r="M32" s="160"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="159"/>
       <c r="C33" s="157"/>
       <c r="E33" s="157"/>
@@ -5180,7 +5092,7 @@
       <c r="L33" s="157"/>
       <c r="M33" s="160"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="159"/>
       <c r="C34" s="157"/>
       <c r="E34" s="157"/>
@@ -5193,7 +5105,7 @@
       <c r="L34" s="157"/>
       <c r="M34" s="160"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="159"/>
       <c r="C35" s="157"/>
       <c r="E35" s="157"/>
@@ -5206,7 +5118,7 @@
       <c r="L35" s="157"/>
       <c r="M35" s="160"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="159"/>
       <c r="C36" s="157"/>
       <c r="E36" s="157">
@@ -5223,16 +5135,16 @@
       <c r="L36" s="157"/>
       <c r="M36" s="160"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="159"/>
       <c r="D37" s="165" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E37" s="157">
         <v>4400</v>
       </c>
       <c r="F37" s="165" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G37" s="157"/>
       <c r="H37" s="157"/>
@@ -5242,10 +5154,10 @@
       <c r="L37" s="157"/>
       <c r="M37" s="160"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="159"/>
       <c r="D38" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E38" s="157">
         <f>E52</f>
@@ -5262,10 +5174,10 @@
       <c r="L38" s="157"/>
       <c r="M38" s="160"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="159"/>
       <c r="D39" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E39" s="157">
         <f>E53</f>
@@ -5282,7 +5194,7 @@
       <c r="L39" s="157"/>
       <c r="M39" s="160"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="159"/>
       <c r="C40" s="157"/>
       <c r="E40" s="157"/>
@@ -5295,7 +5207,7 @@
       <c r="L40" s="157"/>
       <c r="M40" s="160"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="159"/>
       <c r="C41" s="157"/>
       <c r="E41" s="157"/>
@@ -5308,7 +5220,7 @@
       <c r="L41" s="157"/>
       <c r="M41" s="160"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="159"/>
       <c r="C42" s="157"/>
       <c r="E42" s="157"/>
@@ -5321,7 +5233,7 @@
       <c r="L42" s="157"/>
       <c r="M42" s="160"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="159"/>
       <c r="C43" s="157"/>
       <c r="E43" s="157"/>
@@ -5334,7 +5246,7 @@
       <c r="L43" s="157"/>
       <c r="M43" s="160"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="159"/>
       <c r="C44" s="157"/>
       <c r="E44" s="157"/>
@@ -5347,235 +5259,235 @@
       <c r="L44" s="157"/>
       <c r="M44" s="160"/>
     </row>
-    <row r="45" spans="2:14" s="185" customFormat="1">
-      <c r="B45" s="186"/>
-      <c r="C45" s="187"/>
-      <c r="F45" s="187"/>
-      <c r="G45" s="187"/>
-      <c r="H45" s="187"/>
-      <c r="I45" s="187"/>
-      <c r="J45" s="187"/>
-      <c r="K45" s="187"/>
-      <c r="L45" s="187"/>
-      <c r="M45" s="187"/>
-      <c r="N45" s="188"/>
-    </row>
-    <row r="46" spans="2:14" s="185" customFormat="1">
-      <c r="B46" s="186"/>
-      <c r="C46" s="187" t="s">
+    <row r="45" spans="2:14" s="176" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="177"/>
+      <c r="C45" s="178"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="178"/>
+      <c r="K45" s="178"/>
+      <c r="L45" s="178"/>
+      <c r="M45" s="178"/>
+      <c r="N45" s="179"/>
+    </row>
+    <row r="46" spans="2:14" s="176" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="177"/>
+      <c r="C46" s="178" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="178"/>
+      <c r="F46" s="178"/>
+      <c r="G46" s="178"/>
+      <c r="H46" s="178"/>
+      <c r="I46" s="178"/>
+      <c r="J46" s="178"/>
+      <c r="K46" s="178"/>
+      <c r="L46" s="178"/>
+      <c r="M46" s="179"/>
+    </row>
+    <row r="47" spans="2:14" s="176" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="177"/>
+      <c r="C47" s="178" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="187"/>
-      <c r="F46" s="187"/>
-      <c r="G46" s="187"/>
-      <c r="H46" s="187"/>
-      <c r="I46" s="187"/>
-      <c r="J46" s="187"/>
-      <c r="K46" s="187"/>
-      <c r="L46" s="187"/>
-      <c r="M46" s="188"/>
-    </row>
-    <row r="47" spans="2:14" s="185" customFormat="1">
-      <c r="B47" s="186"/>
-      <c r="C47" s="187" t="s">
+      <c r="E47" s="178"/>
+      <c r="F47" s="178"/>
+      <c r="G47" s="178" t="s">
         <v>154</v>
       </c>
-      <c r="E47" s="187"/>
-      <c r="F47" s="187"/>
-      <c r="G47" s="187" t="s">
+      <c r="H47" s="178"/>
+      <c r="I47" s="178"/>
+      <c r="J47" s="178"/>
+      <c r="K47" s="178"/>
+      <c r="L47" s="178"/>
+      <c r="M47" s="179"/>
+    </row>
+    <row r="48" spans="2:14" s="176" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="177"/>
+      <c r="C48" s="178"/>
+      <c r="E48" s="178"/>
+      <c r="F48" s="178"/>
+      <c r="G48" s="178" t="s">
         <v>155</v>
       </c>
-      <c r="H47" s="187"/>
-      <c r="I47" s="187"/>
-      <c r="J47" s="187"/>
-      <c r="K47" s="187"/>
-      <c r="L47" s="187"/>
-      <c r="M47" s="188"/>
-    </row>
-    <row r="48" spans="2:14" s="185" customFormat="1">
-      <c r="B48" s="186"/>
-      <c r="C48" s="187"/>
-      <c r="E48" s="187"/>
-      <c r="F48" s="187"/>
-      <c r="G48" s="187" t="s">
+      <c r="H48" s="178"/>
+      <c r="I48" s="178"/>
+      <c r="J48" s="178"/>
+      <c r="K48" s="178"/>
+      <c r="L48" s="178"/>
+      <c r="M48" s="179"/>
+    </row>
+    <row r="49" spans="2:13" s="176" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="177"/>
+      <c r="C49" s="178"/>
+      <c r="E49" s="178"/>
+      <c r="F49" s="178"/>
+      <c r="G49" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="H48" s="187"/>
-      <c r="I48" s="187"/>
-      <c r="J48" s="187"/>
-      <c r="K48" s="187"/>
-      <c r="L48" s="187"/>
-      <c r="M48" s="188"/>
-    </row>
-    <row r="49" spans="2:13" s="185" customFormat="1">
-      <c r="B49" s="186"/>
-      <c r="C49" s="187"/>
-      <c r="E49" s="187"/>
-      <c r="F49" s="187"/>
-      <c r="G49" s="187" t="s">
+      <c r="H49" s="178"/>
+      <c r="I49" s="178"/>
+      <c r="J49" s="178"/>
+      <c r="K49" s="178"/>
+      <c r="L49" s="178"/>
+      <c r="M49" s="179"/>
+    </row>
+    <row r="50" spans="2:13" s="176" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="177"/>
+      <c r="C50" s="178"/>
+      <c r="E50" s="178"/>
+      <c r="F50" s="178"/>
+      <c r="G50" s="178"/>
+      <c r="H50" s="178"/>
+      <c r="I50" s="178"/>
+      <c r="J50" s="178"/>
+      <c r="K50" s="178"/>
+      <c r="L50" s="178"/>
+      <c r="M50" s="179"/>
+    </row>
+    <row r="51" spans="2:13" s="176" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="177"/>
+      <c r="C51" s="178"/>
+      <c r="E51" s="178"/>
+      <c r="F51" s="178"/>
+      <c r="G51" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="H49" s="187"/>
-      <c r="I49" s="187"/>
-      <c r="J49" s="187"/>
-      <c r="K49" s="187"/>
-      <c r="L49" s="187"/>
-      <c r="M49" s="188"/>
-    </row>
-    <row r="50" spans="2:13" s="185" customFormat="1">
-      <c r="B50" s="186"/>
-      <c r="C50" s="187"/>
-      <c r="E50" s="187"/>
-      <c r="F50" s="187"/>
-      <c r="G50" s="187"/>
-      <c r="H50" s="187"/>
-      <c r="I50" s="187"/>
-      <c r="J50" s="187"/>
-      <c r="K50" s="187"/>
-      <c r="L50" s="187"/>
-      <c r="M50" s="188"/>
-    </row>
-    <row r="51" spans="2:13" s="185" customFormat="1">
-      <c r="B51" s="186"/>
-      <c r="C51" s="187"/>
-      <c r="E51" s="187"/>
-      <c r="F51" s="187"/>
-      <c r="G51" s="187" t="s">
+      <c r="H51" s="178"/>
+      <c r="I51" s="178"/>
+      <c r="J51" s="178"/>
+      <c r="K51" s="178"/>
+      <c r="L51" s="178"/>
+      <c r="M51" s="179"/>
+    </row>
+    <row r="52" spans="2:13" s="176" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="177"/>
+      <c r="C52" s="178"/>
+      <c r="D52" s="178" t="s">
         <v>158</v>
       </c>
-      <c r="H51" s="187"/>
-      <c r="I51" s="187"/>
-      <c r="J51" s="187"/>
-      <c r="K51" s="187"/>
-      <c r="L51" s="187"/>
-      <c r="M51" s="188"/>
-    </row>
-    <row r="52" spans="2:13" s="185" customFormat="1">
-      <c r="B52" s="186"/>
-      <c r="C52" s="187"/>
-      <c r="D52" s="187" t="s">
+      <c r="E52" s="178">
+        <v>20</v>
+      </c>
+      <c r="F52" s="178" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="180" t="s">
         <v>159</v>
       </c>
-      <c r="E52" s="187">
-        <v>20</v>
-      </c>
-      <c r="F52" s="187" t="s">
+      <c r="H52" s="178"/>
+      <c r="I52" s="178"/>
+      <c r="J52" s="178"/>
+      <c r="K52" s="178"/>
+      <c r="L52" s="178"/>
+      <c r="M52" s="179"/>
+    </row>
+    <row r="53" spans="2:13" s="176" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="177"/>
+      <c r="C53" s="178"/>
+      <c r="D53" s="178" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="178">
+        <v>75</v>
+      </c>
+      <c r="F53" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="189" t="s">
-        <v>160</v>
-      </c>
-      <c r="H52" s="187"/>
-      <c r="I52" s="187"/>
-      <c r="J52" s="187"/>
-      <c r="K52" s="187"/>
-      <c r="L52" s="187"/>
-      <c r="M52" s="188"/>
-    </row>
-    <row r="53" spans="2:13" s="185" customFormat="1">
-      <c r="B53" s="186"/>
-      <c r="C53" s="187"/>
-      <c r="D53" s="187" t="s">
+      <c r="G53" s="180" t="s">
         <v>161</v>
       </c>
-      <c r="E53" s="187">
-        <v>75</v>
-      </c>
-      <c r="F53" s="187" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="189" t="s">
+      <c r="H53" s="178"/>
+      <c r="I53" s="178"/>
+      <c r="J53" s="178"/>
+      <c r="K53" s="178"/>
+      <c r="L53" s="178"/>
+      <c r="M53" s="179"/>
+    </row>
+    <row r="54" spans="2:13" s="176" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="177"/>
+      <c r="C54" s="178"/>
+      <c r="E54" s="178"/>
+      <c r="G54" s="180" t="s">
         <v>162</v>
       </c>
-      <c r="H53" s="187"/>
-      <c r="I53" s="187"/>
-      <c r="J53" s="187"/>
-      <c r="K53" s="187"/>
-      <c r="L53" s="187"/>
-      <c r="M53" s="188"/>
-    </row>
-    <row r="54" spans="2:13" s="185" customFormat="1">
-      <c r="B54" s="186"/>
-      <c r="C54" s="187"/>
-      <c r="E54" s="187"/>
-      <c r="G54" s="189" t="s">
+      <c r="H54" s="178"/>
+      <c r="I54" s="178"/>
+      <c r="J54" s="178"/>
+      <c r="K54" s="178"/>
+      <c r="L54" s="178"/>
+      <c r="M54" s="179"/>
+    </row>
+    <row r="55" spans="2:13" s="176" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="177"/>
+      <c r="C55" s="178"/>
+      <c r="E55" s="178"/>
+      <c r="F55" s="178"/>
+      <c r="G55" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="H54" s="187"/>
-      <c r="I54" s="187"/>
-      <c r="J54" s="187"/>
-      <c r="K54" s="187"/>
-      <c r="L54" s="187"/>
-      <c r="M54" s="188"/>
-    </row>
-    <row r="55" spans="2:13" s="185" customFormat="1">
-      <c r="B55" s="186"/>
-      <c r="C55" s="187"/>
-      <c r="E55" s="187"/>
-      <c r="F55" s="187"/>
-      <c r="G55" s="189" t="s">
-        <v>164</v>
-      </c>
-      <c r="H55" s="187"/>
-      <c r="I55" s="187"/>
-      <c r="J55" s="187"/>
-      <c r="K55" s="187"/>
-      <c r="L55" s="187"/>
-      <c r="M55" s="188"/>
-    </row>
-    <row r="56" spans="2:13" s="185" customFormat="1">
-      <c r="B56" s="186"/>
-      <c r="C56" s="187"/>
-      <c r="E56" s="187"/>
-      <c r="F56" s="187"/>
-      <c r="G56" s="187"/>
-      <c r="H56" s="187"/>
-      <c r="I56" s="187"/>
-      <c r="J56" s="187"/>
-      <c r="K56" s="187"/>
-      <c r="L56" s="187"/>
-      <c r="M56" s="188"/>
-    </row>
-    <row r="57" spans="2:13" s="185" customFormat="1">
-      <c r="B57" s="186"/>
-      <c r="C57" s="187"/>
-      <c r="E57" s="187"/>
-      <c r="F57" s="187"/>
-      <c r="G57" s="187"/>
-      <c r="H57" s="187"/>
-      <c r="I57" s="187"/>
-      <c r="J57" s="187"/>
-      <c r="K57" s="187"/>
-      <c r="L57" s="187"/>
-      <c r="M57" s="188"/>
-    </row>
-    <row r="58" spans="2:13" s="185" customFormat="1">
-      <c r="B58" s="186"/>
-      <c r="C58" s="187"/>
-      <c r="E58" s="187"/>
-      <c r="F58" s="187"/>
-      <c r="G58" s="187"/>
-      <c r="H58" s="187"/>
-      <c r="I58" s="187"/>
-      <c r="J58" s="187"/>
-      <c r="K58" s="187"/>
-      <c r="L58" s="187"/>
-      <c r="M58" s="188"/>
-    </row>
-    <row r="59" spans="2:13" s="185" customFormat="1">
-      <c r="B59" s="186"/>
-      <c r="C59" s="187"/>
-      <c r="E59" s="187"/>
-      <c r="F59" s="187"/>
-      <c r="G59" s="187"/>
-      <c r="H59" s="187"/>
-      <c r="I59" s="187"/>
-      <c r="J59" s="187"/>
-      <c r="K59" s="187"/>
-      <c r="L59" s="187"/>
-      <c r="M59" s="188"/>
-    </row>
-    <row r="60" spans="2:13">
+      <c r="H55" s="178"/>
+      <c r="I55" s="178"/>
+      <c r="J55" s="178"/>
+      <c r="K55" s="178"/>
+      <c r="L55" s="178"/>
+      <c r="M55" s="179"/>
+    </row>
+    <row r="56" spans="2:13" s="176" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="177"/>
+      <c r="C56" s="178"/>
+      <c r="E56" s="178"/>
+      <c r="F56" s="178"/>
+      <c r="G56" s="178"/>
+      <c r="H56" s="178"/>
+      <c r="I56" s="178"/>
+      <c r="J56" s="178"/>
+      <c r="K56" s="178"/>
+      <c r="L56" s="178"/>
+      <c r="M56" s="179"/>
+    </row>
+    <row r="57" spans="2:13" s="176" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="177"/>
+      <c r="C57" s="178"/>
+      <c r="E57" s="178"/>
+      <c r="F57" s="178"/>
+      <c r="G57" s="178"/>
+      <c r="H57" s="178"/>
+      <c r="I57" s="178"/>
+      <c r="J57" s="178"/>
+      <c r="K57" s="178"/>
+      <c r="L57" s="178"/>
+      <c r="M57" s="179"/>
+    </row>
+    <row r="58" spans="2:13" s="176" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="177"/>
+      <c r="C58" s="178"/>
+      <c r="E58" s="178"/>
+      <c r="F58" s="178"/>
+      <c r="G58" s="178"/>
+      <c r="H58" s="178"/>
+      <c r="I58" s="178"/>
+      <c r="J58" s="178"/>
+      <c r="K58" s="178"/>
+      <c r="L58" s="178"/>
+      <c r="M58" s="179"/>
+    </row>
+    <row r="59" spans="2:13" s="176" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="177"/>
+      <c r="C59" s="178"/>
+      <c r="E59" s="178"/>
+      <c r="F59" s="178"/>
+      <c r="G59" s="178"/>
+      <c r="H59" s="178"/>
+      <c r="I59" s="178"/>
+      <c r="J59" s="178"/>
+      <c r="K59" s="178"/>
+      <c r="L59" s="178"/>
+      <c r="M59" s="179"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="159"/>
       <c r="C60" s="157"/>
       <c r="E60" s="157"/>
@@ -5588,7 +5500,7 @@
       <c r="L60" s="157"/>
       <c r="M60" s="160"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="159"/>
       <c r="C61" s="157"/>
       <c r="E61" s="157"/>
@@ -5601,7 +5513,7 @@
       <c r="L61" s="157"/>
       <c r="M61" s="160"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="159"/>
       <c r="C62" s="157"/>
       <c r="E62" s="157"/>
@@ -5614,7 +5526,7 @@
       <c r="L62" s="157"/>
       <c r="M62" s="160"/>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="159"/>
       <c r="C63" s="157"/>
       <c r="E63" s="157"/>
@@ -5627,7 +5539,7 @@
       <c r="L63" s="157"/>
       <c r="M63" s="160"/>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="159"/>
       <c r="C64" s="157"/>
       <c r="E64" s="157"/>
@@ -5640,7 +5552,7 @@
       <c r="L64" s="157"/>
       <c r="M64" s="160"/>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="159"/>
       <c r="C65" s="165"/>
       <c r="E65" s="157"/>
@@ -5653,10 +5565,10 @@
       <c r="L65" s="157"/>
       <c r="M65" s="160"/>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="159"/>
       <c r="C66" s="165" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E66" s="157"/>
       <c r="F66" s="157"/>
@@ -5668,16 +5580,16 @@
       <c r="L66" s="157"/>
       <c r="M66" s="160"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="159"/>
       <c r="D67" s="165" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E67" s="157">
         <v>421.8</v>
       </c>
       <c r="F67" s="165" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G67" s="157"/>
       <c r="H67" s="157"/>
@@ -5687,10 +5599,10 @@
       <c r="L67" s="157"/>
       <c r="M67" s="160"/>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="159"/>
       <c r="D68" s="165" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E68" s="157">
         <v>6</v>
@@ -5706,7 +5618,7 @@
       <c r="L68" s="157"/>
       <c r="M68" s="160"/>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" s="159"/>
       <c r="C69" s="157"/>
       <c r="E69" s="157"/>
@@ -5719,7 +5631,7 @@
       <c r="L69" s="157"/>
       <c r="M69" s="160"/>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" s="159"/>
       <c r="C70" s="157"/>
       <c r="E70" s="157"/>
@@ -5732,7 +5644,7 @@
       <c r="L70" s="157"/>
       <c r="M70" s="160"/>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="159"/>
       <c r="C71" s="157"/>
       <c r="E71" s="157"/>
@@ -5745,7 +5657,7 @@
       <c r="L71" s="157"/>
       <c r="M71" s="160"/>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" s="159"/>
       <c r="C72" s="157"/>
       <c r="E72" s="157"/>
@@ -5758,7 +5670,7 @@
       <c r="L72" s="157"/>
       <c r="M72" s="160"/>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73" s="159"/>
       <c r="C73" s="157"/>
       <c r="E73" s="157"/>
@@ -5771,7 +5683,7 @@
       <c r="L73" s="157"/>
       <c r="M73" s="160"/>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B74" s="159"/>
       <c r="C74" s="157"/>
       <c r="E74" s="157"/>
@@ -5784,7 +5696,7 @@
       <c r="L74" s="157"/>
       <c r="M74" s="160"/>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" s="159"/>
       <c r="C75" s="157"/>
       <c r="E75" s="157"/>
@@ -5797,7 +5709,7 @@
       <c r="L75" s="157"/>
       <c r="M75" s="160"/>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B76" s="159"/>
       <c r="C76" s="157"/>
       <c r="E76" s="157"/>
@@ -5810,7 +5722,7 @@
       <c r="L76" s="157"/>
       <c r="M76" s="160"/>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="159"/>
       <c r="C77" s="157"/>
       <c r="E77" s="157"/>
@@ -5823,7 +5735,7 @@
       <c r="L77" s="157"/>
       <c r="M77" s="160"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78" s="159"/>
       <c r="C78" s="157"/>
       <c r="E78" s="157"/>
@@ -5836,7 +5748,7 @@
       <c r="L78" s="157"/>
       <c r="M78" s="160"/>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="159"/>
       <c r="C79" s="157"/>
       <c r="E79" s="157"/>
@@ -5849,7 +5761,7 @@
       <c r="L79" s="157"/>
       <c r="M79" s="160"/>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B80" s="159"/>
       <c r="C80" s="157"/>
       <c r="E80" s="157"/>
@@ -5862,10 +5774,10 @@
       <c r="L80" s="157"/>
       <c r="M80" s="160"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="159"/>
       <c r="C81" s="165" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E81" s="157"/>
       <c r="F81" s="157"/>
@@ -5877,10 +5789,10 @@
       <c r="L81" s="157"/>
       <c r="M81" s="160"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="159"/>
       <c r="C82" s="165" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E82" s="157"/>
       <c r="F82" s="157"/>
@@ -5892,7 +5804,7 @@
       <c r="L82" s="157"/>
       <c r="M82" s="160"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="159"/>
       <c r="C83" s="157"/>
       <c r="E83" s="157"/>
@@ -5905,7 +5817,7 @@
       <c r="L83" s="157"/>
       <c r="M83" s="160"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" s="159"/>
       <c r="C84" s="157"/>
       <c r="E84" s="157"/>
@@ -5918,7 +5830,7 @@
       <c r="L84" s="157"/>
       <c r="M84" s="160"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" s="159"/>
       <c r="C85" s="157"/>
       <c r="E85" s="157"/>
@@ -5931,7 +5843,7 @@
       <c r="L85" s="157"/>
       <c r="M85" s="160"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="159"/>
       <c r="C86" s="157"/>
       <c r="E86" s="157"/>
@@ -5944,7 +5856,7 @@
       <c r="L86" s="157"/>
       <c r="M86" s="160"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="159"/>
       <c r="C87" s="157"/>
       <c r="E87" s="157"/>
@@ -5957,17 +5869,17 @@
       <c r="L87" s="157"/>
       <c r="M87" s="160"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="159"/>
       <c r="C88" s="157"/>
-      <c r="D88" s="185" t="s">
+      <c r="D88" s="176" t="s">
         <v>1</v>
       </c>
       <c r="E88" s="157">
         <v>14</v>
       </c>
       <c r="F88" s="165" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G88" s="157"/>
       <c r="H88" s="157"/>
@@ -5977,7 +5889,7 @@
       <c r="L88" s="157"/>
       <c r="M88" s="160"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="159"/>
       <c r="C89" s="157"/>
       <c r="E89" s="157"/>
@@ -5990,7 +5902,7 @@
       <c r="L89" s="157"/>
       <c r="M89" s="160"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="159"/>
       <c r="C90" s="157"/>
       <c r="E90" s="157"/>
@@ -6003,7 +5915,7 @@
       <c r="L90" s="157"/>
       <c r="M90" s="160"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="159"/>
       <c r="C91" s="157"/>
       <c r="E91" s="157"/>
@@ -6016,7 +5928,7 @@
       <c r="L91" s="157"/>
       <c r="M91" s="160"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92" s="159"/>
       <c r="C92" s="157"/>
       <c r="E92" s="157"/>
@@ -6029,7 +5941,7 @@
       <c r="L92" s="157"/>
       <c r="M92" s="160"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93" s="159"/>
       <c r="C93" s="157"/>
       <c r="E93" s="157"/>
@@ -6042,7 +5954,7 @@
       <c r="L93" s="157"/>
       <c r="M93" s="160"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94" s="159"/>
       <c r="C94" s="157"/>
       <c r="E94" s="157"/>
@@ -6055,7 +5967,7 @@
       <c r="L94" s="157"/>
       <c r="M94" s="160"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95" s="159"/>
       <c r="C95" s="157"/>
       <c r="E95" s="157"/>
@@ -6068,7 +5980,7 @@
       <c r="L95" s="157"/>
       <c r="M95" s="160"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96" s="159"/>
       <c r="C96" s="157"/>
       <c r="E96" s="157"/>
@@ -6081,7 +5993,7 @@
       <c r="L96" s="157"/>
       <c r="M96" s="160"/>
     </row>
-    <row r="97" spans="2:13">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B97" s="159"/>
       <c r="C97" s="157"/>
       <c r="E97" s="157"/>
@@ -6094,7 +6006,7 @@
       <c r="L97" s="157"/>
       <c r="M97" s="160"/>
     </row>
-    <row r="98" spans="2:13">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B98" s="159"/>
       <c r="C98" s="157"/>
       <c r="E98" s="157"/>
@@ -6107,7 +6019,7 @@
       <c r="L98" s="157"/>
       <c r="M98" s="160"/>
     </row>
-    <row r="99" spans="2:13">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B99" s="159"/>
       <c r="C99" s="157"/>
       <c r="E99" s="157"/>
@@ -6120,10 +6032,10 @@
       <c r="L99" s="157"/>
       <c r="M99" s="160"/>
     </row>
-    <row r="100" spans="2:13">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B100" s="159"/>
       <c r="C100" s="165" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E100" s="157"/>
       <c r="F100" s="157"/>
@@ -6135,10 +6047,10 @@
       <c r="L100" s="157"/>
       <c r="M100" s="160"/>
     </row>
-    <row r="101" spans="2:13">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B101" s="159"/>
       <c r="C101" s="165" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E101" s="157"/>
       <c r="F101" s="157"/>
@@ -6150,7 +6062,7 @@
       <c r="L101" s="157"/>
       <c r="M101" s="160"/>
     </row>
-    <row r="102" spans="2:13">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B102" s="159"/>
       <c r="C102" s="157"/>
       <c r="E102" s="157"/>
@@ -6163,7 +6075,7 @@
       <c r="L102" s="157"/>
       <c r="M102" s="160"/>
     </row>
-    <row r="103" spans="2:13">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B103" s="159"/>
       <c r="C103" s="157"/>
       <c r="E103" s="157"/>
@@ -6176,7 +6088,7 @@
       <c r="L103" s="157"/>
       <c r="M103" s="160"/>
     </row>
-    <row r="104" spans="2:13">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B104" s="159"/>
       <c r="C104" s="157"/>
       <c r="E104" s="157"/>
@@ -6189,7 +6101,7 @@
       <c r="L104" s="157"/>
       <c r="M104" s="160"/>
     </row>
-    <row r="105" spans="2:13">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B105" s="159"/>
       <c r="C105" s="157"/>
       <c r="E105" s="157"/>
@@ -6202,7 +6114,7 @@
       <c r="L105" s="157"/>
       <c r="M105" s="160"/>
     </row>
-    <row r="106" spans="2:13">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B106" s="159"/>
       <c r="C106" s="157"/>
       <c r="E106" s="157"/>
@@ -6215,7 +6127,7 @@
       <c r="L106" s="157"/>
       <c r="M106" s="160"/>
     </row>
-    <row r="107" spans="2:13">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B107" s="159"/>
       <c r="C107" s="157"/>
       <c r="E107" s="157"/>
@@ -6228,17 +6140,17 @@
       <c r="L107" s="157"/>
       <c r="M107" s="160"/>
     </row>
-    <row r="108" spans="2:13">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B108" s="159"/>
       <c r="C108" s="157"/>
-      <c r="D108" s="185" t="s">
+      <c r="D108" s="176" t="s">
         <v>6</v>
       </c>
       <c r="E108" s="157">
         <v>15</v>
       </c>
       <c r="F108" s="165" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G108" s="157"/>
       <c r="H108" s="157"/>
@@ -6248,7 +6160,7 @@
       <c r="L108" s="157"/>
       <c r="M108" s="160"/>
     </row>
-    <row r="109" spans="2:13">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B109" s="159"/>
       <c r="C109" s="157"/>
       <c r="D109" s="157"/>
@@ -6262,7 +6174,7 @@
       <c r="L109" s="157"/>
       <c r="M109" s="160"/>
     </row>
-    <row r="110" spans="2:13">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B110" s="159"/>
       <c r="C110" s="157"/>
       <c r="D110" s="157"/>
@@ -6276,7 +6188,7 @@
       <c r="L110" s="157"/>
       <c r="M110" s="160"/>
     </row>
-    <row r="111" spans="2:13">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B111" s="159"/>
       <c r="C111" s="157"/>
       <c r="D111" s="157"/>
@@ -6290,7 +6202,7 @@
       <c r="L111" s="157"/>
       <c r="M111" s="160"/>
     </row>
-    <row r="112" spans="2:13">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B112" s="159"/>
       <c r="C112" s="157"/>
       <c r="D112" s="157"/>
@@ -6304,7 +6216,7 @@
       <c r="L112" s="157"/>
       <c r="M112" s="160"/>
     </row>
-    <row r="113" spans="2:13">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B113" s="159"/>
       <c r="C113" s="157"/>
       <c r="D113" s="157"/>
@@ -6322,10 +6234,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>